--- a/assets/default_calibrations/pfm/20220808_pfm_55Fe109Cd137Cs_m10deg_105thr_LV0d5/report_cal.xlsx
+++ b/assets/default_calibrations/pfm/20220808_pfm_55Fe109Cd137Cs_m10deg_105thr_LV0d5/report_cal.xlsx
@@ -423,19 +423,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>165.3397422212504</v>
+        <v>165.3397422273083</v>
       </c>
       <c r="C2">
-        <v>0.411930241367235</v>
+        <v>0.4119301854772736</v>
       </c>
       <c r="D2">
-        <v>16079.63114966588</v>
+        <v>16079.63114954705</v>
       </c>
       <c r="E2">
-        <v>8.036796055507667</v>
+        <v>8.036795242877362</v>
       </c>
       <c r="F2">
-        <v>55.9132124446608</v>
+        <v>55.91321245404541</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -443,19 +443,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>138.3201646184741</v>
+        <v>138.3201646739048</v>
       </c>
       <c r="C3">
-        <v>1.255648911528793</v>
+        <v>1.255649014293453</v>
       </c>
       <c r="D3">
-        <v>15918.25896203439</v>
+        <v>15918.25896028727</v>
       </c>
       <c r="E3">
-        <v>28.02502543624693</v>
+        <v>28.02502774280551</v>
       </c>
       <c r="F3">
-        <v>136.7424462901476</v>
+        <v>136.7424477002814</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -463,19 +463,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>162.2591246285644</v>
+        <v>162.2591246467126</v>
       </c>
       <c r="C4">
-        <v>0.4018803693441762</v>
+        <v>0.4018804043535251</v>
       </c>
       <c r="D4">
-        <v>16337.02005463625</v>
+        <v>16337.02005434619</v>
       </c>
       <c r="E4">
-        <v>8.092854721199517</v>
+        <v>8.092855427323551</v>
       </c>
       <c r="F4">
-        <v>27.17994048495549</v>
+        <v>27.17994048551945</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -483,19 +483,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>155.0363336736986</v>
+        <v>155.0363336605622</v>
       </c>
       <c r="C5">
-        <v>1.062259731301052</v>
+        <v>1.062259730729243</v>
       </c>
       <c r="D5">
-        <v>15217.74379890062</v>
+        <v>15217.74379965589</v>
       </c>
       <c r="E5">
-        <v>24.40424118735557</v>
+        <v>24.404241375011</v>
       </c>
       <c r="F5">
-        <v>150.700785088603</v>
+        <v>150.7007850885909</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -503,19 +503,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>156.0035347685957</v>
+        <v>156.0035346792544</v>
       </c>
       <c r="C6">
-        <v>1.451783240834847</v>
+        <v>1.451783124295597</v>
       </c>
       <c r="D6">
-        <v>15805.308945156</v>
+        <v>15805.3089472574</v>
       </c>
       <c r="E6">
-        <v>33.08579991391098</v>
+        <v>33.08579887941995</v>
       </c>
       <c r="F6">
-        <v>199.9713167561177</v>
+        <v>199.9713168818737</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -523,19 +523,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>164.8144999670602</v>
+        <v>164.8144999780085</v>
       </c>
       <c r="C7">
-        <v>0.3462362427816517</v>
+        <v>0.3462362138406687</v>
       </c>
       <c r="D7">
-        <v>16038.577630831</v>
+        <v>16038.5776307031</v>
       </c>
       <c r="E7">
-        <v>5.155532262549371</v>
+        <v>5.155531686666954</v>
       </c>
       <c r="F7">
-        <v>28.91531494571053</v>
+        <v>28.91531493453748</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -543,19 +543,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>180.8470703213705</v>
+        <v>180.847070353976</v>
       </c>
       <c r="C8">
-        <v>0.6915994353429752</v>
+        <v>0.6915994550942648</v>
       </c>
       <c r="D8">
-        <v>15290.41489351589</v>
+        <v>15290.41489240095</v>
       </c>
       <c r="E8">
-        <v>16.50626509994018</v>
+        <v>16.50626542587429</v>
       </c>
       <c r="F8">
-        <v>37.48775574603584</v>
+        <v>37.4877556915666</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -563,19 +563,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>149.3951014234079</v>
+        <v>149.3951013933224</v>
       </c>
       <c r="C9">
-        <v>0.6209928789243461</v>
+        <v>0.6209928914364276</v>
       </c>
       <c r="D9">
-        <v>16248.42268322821</v>
+        <v>16248.42268394383</v>
       </c>
       <c r="E9">
-        <v>13.90048769765421</v>
+        <v>13.90048792954557</v>
       </c>
       <c r="F9">
-        <v>41.41084273416065</v>
+        <v>41.41084279798623</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -583,19 +583,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>172.779480683026</v>
+        <v>172.7794806831489</v>
       </c>
       <c r="C10">
-        <v>0.5888574019159024</v>
+        <v>0.5888574293220767</v>
       </c>
       <c r="D10">
-        <v>15770.22181341989</v>
+        <v>15770.22181341848</v>
       </c>
       <c r="E10">
-        <v>11.4373194149623</v>
+        <v>11.43731957629511</v>
       </c>
       <c r="F10">
-        <v>44.93792340306014</v>
+        <v>44.93792336921938</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -603,19 +603,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>172.8469279973209</v>
+        <v>172.8469279604002</v>
       </c>
       <c r="C11">
-        <v>0.7064892476700377</v>
+        <v>0.7064891977369447</v>
       </c>
       <c r="D11">
-        <v>15634.42531111603</v>
+        <v>15634.425312194</v>
       </c>
       <c r="E11">
-        <v>16.31936892742792</v>
+        <v>16.31936856033896</v>
       </c>
       <c r="F11">
-        <v>85.83190699363242</v>
+        <v>85.83190675795782</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -623,19 +623,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>180.3013707285505</v>
+        <v>180.3013707296206</v>
       </c>
       <c r="C12">
-        <v>0.2181277773527551</v>
+        <v>0.2181277741703768</v>
       </c>
       <c r="D12">
-        <v>16382.82451655615</v>
+        <v>16382.824516549</v>
       </c>
       <c r="E12">
-        <v>3.317706822939306</v>
+        <v>3.317706796332446</v>
       </c>
       <c r="F12">
-        <v>17.7591395773965</v>
+        <v>17.75913957741097</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -643,19 +643,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>159.4918767378459</v>
+        <v>159.4918766186318</v>
       </c>
       <c r="C13">
-        <v>1.06099758819151</v>
+        <v>1.060997519793234</v>
       </c>
       <c r="D13">
-        <v>16300.48480221972</v>
+        <v>16300.48480490331</v>
       </c>
       <c r="E13">
-        <v>25.31332050736157</v>
+        <v>25.31331907281595</v>
       </c>
       <c r="F13">
-        <v>94.74510932411799</v>
+        <v>94.74510962645435</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -663,19 +663,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>173.2657509941724</v>
+        <v>173.2657509713633</v>
       </c>
       <c r="C14">
-        <v>0.2653474696951179</v>
+        <v>0.2653474509746812</v>
       </c>
       <c r="D14">
-        <v>15667.41923113592</v>
+        <v>15667.41923149934</v>
       </c>
       <c r="E14">
-        <v>5.62567578557244</v>
+        <v>5.625675329924478</v>
       </c>
       <c r="F14">
-        <v>10.23673705017306</v>
+        <v>10.23673705017408</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -683,19 +683,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>162.5316086333601</v>
+        <v>162.5316086380864</v>
       </c>
       <c r="C15">
-        <v>0.2148764293971161</v>
+        <v>0.2148764211529595</v>
       </c>
       <c r="D15">
-        <v>15909.64977646645</v>
+        <v>15909.64977636767</v>
       </c>
       <c r="E15">
-        <v>4.973497944625251</v>
+        <v>4.973497806182802</v>
       </c>
       <c r="F15">
-        <v>8.879114684210636</v>
+        <v>8.87911463667082</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -703,19 +703,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>179.5013990432341</v>
+        <v>179.5013990417596</v>
       </c>
       <c r="C16">
-        <v>0.2377756482737292</v>
+        <v>0.2377756440260698</v>
       </c>
       <c r="D16">
-        <v>16134.04459026848</v>
+        <v>16134.04459041048</v>
       </c>
       <c r="E16">
-        <v>5.49712375702561</v>
+        <v>5.497123932418162</v>
       </c>
       <c r="F16">
-        <v>6.421712385377603</v>
+        <v>6.4217123853798</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -723,19 +723,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>161.8704535533818</v>
+        <v>161.8704535275908</v>
       </c>
       <c r="C17">
-        <v>0.4051937854296392</v>
+        <v>0.4051937673342264</v>
       </c>
       <c r="D17">
-        <v>15618.05842191768</v>
+        <v>15618.05842227797</v>
       </c>
       <c r="E17">
-        <v>6.96839692876696</v>
+        <v>6.968396826231386</v>
       </c>
       <c r="F17">
-        <v>16.1476461663463</v>
+        <v>16.14764622515484</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -743,19 +743,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>157.1054726731545</v>
+        <v>157.1054726510181</v>
       </c>
       <c r="C18">
-        <v>1.374864056628797</v>
+        <v>1.374864163197258</v>
       </c>
       <c r="D18">
-        <v>15479.81001024791</v>
+        <v>15479.8100114779</v>
       </c>
       <c r="E18">
-        <v>33.40584249191328</v>
+        <v>33.40584507340424</v>
       </c>
       <c r="F18">
-        <v>61.40663711330787</v>
+        <v>61.40663696400864</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -763,19 +763,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>173.4563870257234</v>
+        <v>173.4563870129059</v>
       </c>
       <c r="C19">
-        <v>0.4622584560756836</v>
+        <v>0.4622584298436576</v>
       </c>
       <c r="D19">
-        <v>15808.09905879553</v>
+        <v>15808.09905913633</v>
       </c>
       <c r="E19">
-        <v>10.86676394791416</v>
+        <v>10.86676335892749</v>
       </c>
       <c r="F19">
-        <v>35.1214631162242</v>
+        <v>35.12146299604159</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -783,19 +783,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>155.5173154497914</v>
+        <v>155.517315504472</v>
       </c>
       <c r="C20">
-        <v>0.4871789169372076</v>
+        <v>0.4871788806857227</v>
       </c>
       <c r="D20">
-        <v>15399.45282902812</v>
+        <v>15399.45282836235</v>
       </c>
       <c r="E20">
-        <v>10.10797102626198</v>
+        <v>10.10797088314271</v>
       </c>
       <c r="F20">
-        <v>43.53451843140233</v>
+        <v>43.53451911966197</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -803,19 +803,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>160.3741460995896</v>
+        <v>160.3741460987816</v>
       </c>
       <c r="C21">
-        <v>0.6021997082735643</v>
+        <v>0.6021996604870946</v>
       </c>
       <c r="D21">
-        <v>16352.88923536686</v>
+        <v>16352.88923537195</v>
       </c>
       <c r="E21">
-        <v>13.88420557181863</v>
+        <v>13.88420462300183</v>
       </c>
       <c r="F21">
-        <v>45.55520166584176</v>
+        <v>45.55520164743566</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -823,19 +823,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>176.8555520260539</v>
+        <v>176.8555520261243</v>
       </c>
       <c r="C22">
-        <v>0.118844710025791</v>
+        <v>0.1188447098919476</v>
       </c>
       <c r="D22">
-        <v>16466.46542077231</v>
+        <v>16466.46542077055</v>
       </c>
       <c r="E22">
-        <v>2.652494459129967</v>
+        <v>2.652494455421937</v>
       </c>
       <c r="F22">
-        <v>7.113407919680694</v>
+        <v>7.113407919361918</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -843,19 +843,19 @@
         <v>22</v>
       </c>
       <c r="B23">
-        <v>180.8784916084744</v>
+        <v>180.878491604709</v>
       </c>
       <c r="C23">
-        <v>0.1055367152768569</v>
+        <v>0.1055367166932392</v>
       </c>
       <c r="D23">
-        <v>15904.57927741104</v>
+        <v>15904.57927746807</v>
       </c>
       <c r="E23">
-        <v>1.998808597980728</v>
+        <v>1.998808638198878</v>
       </c>
       <c r="F23">
-        <v>6.912746430147732</v>
+        <v>6.912746430143049</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -863,19 +863,19 @@
         <v>23</v>
       </c>
       <c r="B24">
-        <v>174.2587280935554</v>
+        <v>174.2587280983874</v>
       </c>
       <c r="C24">
-        <v>0.213403013490711</v>
+        <v>0.2134030093792245</v>
       </c>
       <c r="D24">
-        <v>15633.05113077298</v>
+        <v>15633.05113072435</v>
       </c>
       <c r="E24">
-        <v>4.723327899990032</v>
+        <v>4.723327867044801</v>
       </c>
       <c r="F24">
-        <v>33.43010534330049</v>
+        <v>33.43010534361703</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -883,19 +883,19 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>172.1195670193279</v>
+        <v>172.1195670015078</v>
       </c>
       <c r="C25">
-        <v>0.3798968840894774</v>
+        <v>0.3798968616985022</v>
       </c>
       <c r="D25">
-        <v>16459.2967222384</v>
+        <v>16459.29672255017</v>
       </c>
       <c r="E25">
-        <v>7.857156605535268</v>
+        <v>7.857155997288339</v>
       </c>
       <c r="F25">
-        <v>91.29158484977961</v>
+        <v>91.29158474358421</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -903,19 +903,19 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>170.1804923897591</v>
+        <v>170.1804923928619</v>
       </c>
       <c r="C26">
-        <v>0.1107710392242322</v>
+        <v>0.1107710374285003</v>
       </c>
       <c r="D26">
-        <v>16293.54676807115</v>
+        <v>16293.54676808412</v>
       </c>
       <c r="E26">
-        <v>2.308444262933011</v>
+        <v>2.308444214799141</v>
       </c>
       <c r="F26">
-        <v>3.586704568154361</v>
+        <v>3.586704559204082</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -923,19 +923,19 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>162.4277159812397</v>
+        <v>162.427715981413</v>
       </c>
       <c r="C27">
-        <v>0.6618192305777387</v>
+        <v>0.6618191885602486</v>
       </c>
       <c r="D27">
-        <v>15942.11090671402</v>
+        <v>15942.1109067126</v>
       </c>
       <c r="E27">
-        <v>15.86425378292694</v>
+        <v>15.8642534742484</v>
       </c>
       <c r="F27">
-        <v>38.49734557724562</v>
+        <v>38.49734558562682</v>
       </c>
     </row>
   </sheetData>
@@ -976,19 +976,19 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>147.1316175982919</v>
+        <v>147.1316176150991</v>
       </c>
       <c r="C2">
-        <v>0.3789986973117107</v>
+        <v>0.3789987161068628</v>
       </c>
       <c r="D2">
-        <v>15960.34972038325</v>
+        <v>15960.34972040713</v>
       </c>
       <c r="E2">
-        <v>9.15833181065566</v>
+        <v>9.158332399741298</v>
       </c>
       <c r="F2">
-        <v>12.61678270429153</v>
+        <v>12.61678270429434</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -996,19 +996,19 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>173.2304283851529</v>
+        <v>173.2304283791508</v>
       </c>
       <c r="C3">
-        <v>0.6997135101261382</v>
+        <v>0.6997135101017252</v>
       </c>
       <c r="D3">
-        <v>15891.806849716</v>
+        <v>15891.80684980397</v>
       </c>
       <c r="E3">
-        <v>16.7909683868792</v>
+        <v>16.79096838696809</v>
       </c>
       <c r="F3">
-        <v>29.36366720492338</v>
+        <v>29.36366720490943</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1016,19 +1016,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>195.3978380655405</v>
+        <v>195.3978380653335</v>
       </c>
       <c r="C4">
-        <v>0.07606908679828013</v>
+        <v>0.07606907995012524</v>
       </c>
       <c r="D4">
-        <v>15684.87530510033</v>
+        <v>15684.8753050838</v>
       </c>
       <c r="E4">
-        <v>1.707488626854677</v>
+        <v>1.707488489880362</v>
       </c>
       <c r="F4">
-        <v>1.598802823971474</v>
+        <v>1.59880280482461</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1036,19 +1036,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>174.2445537682561</v>
+        <v>174.2445537830207</v>
       </c>
       <c r="C5">
-        <v>0.6046368025697257</v>
+        <v>0.6046367912952342</v>
       </c>
       <c r="D5">
-        <v>15310.67413653505</v>
+        <v>15310.67413617664</v>
       </c>
       <c r="E5">
-        <v>13.81983218843197</v>
+        <v>13.81983174124302</v>
       </c>
       <c r="F5">
-        <v>57.2390448315021</v>
+        <v>57.23904483153501</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1056,19 +1056,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>166.5897224179297</v>
+        <v>166.5897223328732</v>
       </c>
       <c r="C6">
-        <v>0.7974282326794353</v>
+        <v>0.7974282383217276</v>
       </c>
       <c r="D6">
-        <v>15664.95586656346</v>
+        <v>15664.95586828591</v>
       </c>
       <c r="E6">
-        <v>17.65375868260853</v>
+        <v>17.6537588414869</v>
       </c>
       <c r="F6">
-        <v>33.6108192164329</v>
+        <v>33.61081920102812</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1076,19 +1076,19 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>153.8068873209316</v>
+        <v>153.8068873220143</v>
       </c>
       <c r="C7">
-        <v>0.795060877419225</v>
+        <v>0.7950609135085948</v>
       </c>
       <c r="D7">
-        <v>15311.98200900872</v>
+        <v>15311.98200898198</v>
       </c>
       <c r="E7">
-        <v>17.67440088910597</v>
+        <v>17.67440068240143</v>
       </c>
       <c r="F7">
-        <v>59.21550297437805</v>
+        <v>59.2155029665219</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1096,19 +1096,19 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>151.5930964926635</v>
+        <v>151.5930964918436</v>
       </c>
       <c r="C8">
-        <v>0.4290456830054991</v>
+        <v>0.4290457119965645</v>
       </c>
       <c r="D8">
-        <v>15413.7854447836</v>
+        <v>15413.78544500059</v>
       </c>
       <c r="E8">
-        <v>10.520390385856</v>
+        <v>10.52039093890464</v>
       </c>
       <c r="F8">
-        <v>28.82840159366599</v>
+        <v>28.82840159739433</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1116,19 +1116,19 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>193.9386321992432</v>
+        <v>193.9386321871245</v>
       </c>
       <c r="C9">
-        <v>0.1582290073668225</v>
+        <v>0.1582290007914457</v>
       </c>
       <c r="D9">
-        <v>16565.95754816055</v>
+        <v>16565.95754841365</v>
       </c>
       <c r="E9">
-        <v>3.373576437716217</v>
+        <v>3.373576380844093</v>
       </c>
       <c r="F9">
-        <v>3.566952802882086</v>
+        <v>3.566952843453199</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1136,19 +1136,19 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>147.7398466733238</v>
+        <v>147.7398466731982</v>
       </c>
       <c r="C10">
-        <v>1.764912352641163</v>
+        <v>1.764912465609768</v>
       </c>
       <c r="D10">
-        <v>15789.56149094659</v>
+        <v>15789.56149094929</v>
       </c>
       <c r="E10">
-        <v>38.71177036400358</v>
+        <v>38.71177170937908</v>
       </c>
       <c r="F10">
-        <v>191.7152496395762</v>
+        <v>191.715249639514</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1156,19 +1156,19 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>174.7142398993232</v>
+        <v>174.71423990276</v>
       </c>
       <c r="C11">
-        <v>0.3907385872149702</v>
+        <v>0.3907385758501865</v>
       </c>
       <c r="D11">
-        <v>15815.86254080357</v>
+        <v>15815.86254070276</v>
       </c>
       <c r="E11">
-        <v>8.445877450745403</v>
+        <v>8.44587694248229</v>
       </c>
       <c r="F11">
-        <v>21.19177911623643</v>
+        <v>21.19177907900745</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1176,19 +1176,19 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>175.1442258728134</v>
+        <v>175.144225845924</v>
       </c>
       <c r="C12">
-        <v>0.6272280302553292</v>
+        <v>0.6272280337719953</v>
       </c>
       <c r="D12">
-        <v>16006.04993035215</v>
+        <v>16006.04993071249</v>
       </c>
       <c r="E12">
-        <v>11.51829217462368</v>
+        <v>11.51829274634906</v>
       </c>
       <c r="F12">
-        <v>696.7890381245936</v>
+        <v>696.7890417307257</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1196,19 +1196,19 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>179.4972563466358</v>
+        <v>179.4972563445515</v>
       </c>
       <c r="C13">
-        <v>0.1957772180176165</v>
+        <v>0.1957772182777118</v>
       </c>
       <c r="D13">
-        <v>15326.05122362592</v>
+        <v>15326.05122353805</v>
       </c>
       <c r="E13">
-        <v>4.407474316983098</v>
+        <v>4.407474320381734</v>
       </c>
       <c r="F13">
-        <v>4.854657841105119</v>
+        <v>4.854657848144575</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1216,19 +1216,19 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>155.9330916636011</v>
+        <v>155.9330917702345</v>
       </c>
       <c r="C14">
-        <v>1.104111866050615</v>
+        <v>1.104111790631185</v>
       </c>
       <c r="D14">
-        <v>15864.48502371526</v>
+        <v>15864.48502093697</v>
       </c>
       <c r="E14">
-        <v>25.82438947213904</v>
+        <v>25.82438873621764</v>
       </c>
       <c r="F14">
-        <v>67.38902424701469</v>
+        <v>67.38902425623952</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1236,19 +1236,19 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>165.9464686408348</v>
+        <v>165.9464686523174</v>
       </c>
       <c r="C15">
-        <v>0.7410824580831221</v>
+        <v>0.7410824613300051</v>
       </c>
       <c r="D15">
-        <v>15468.10540383741</v>
+        <v>15468.10540324889</v>
       </c>
       <c r="E15">
-        <v>17.10586417674737</v>
+        <v>17.10586422040593</v>
       </c>
       <c r="F15">
-        <v>141.644682497229</v>
+        <v>141.6446837306756</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1256,19 +1256,19 @@
         <v>17</v>
       </c>
       <c r="B16">
-        <v>167.4854046358682</v>
+        <v>167.485404674914</v>
       </c>
       <c r="C16">
-        <v>0.4922041703283341</v>
+        <v>0.4922041434813492</v>
       </c>
       <c r="D16">
-        <v>15889.28360589779</v>
+        <v>15889.28360524303</v>
       </c>
       <c r="E16">
-        <v>9.392097964889828</v>
+        <v>9.392097805096856</v>
       </c>
       <c r="F16">
-        <v>77.54792474316586</v>
+        <v>77.54792451241555</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1276,19 +1276,19 @@
         <v>18</v>
       </c>
       <c r="B17">
-        <v>170.2769659183313</v>
+        <v>170.2769658928952</v>
       </c>
       <c r="C17">
-        <v>0.4860682028444296</v>
+        <v>0.4860681967943706</v>
       </c>
       <c r="D17">
-        <v>16275.54968317465</v>
+        <v>16275.54968384465</v>
       </c>
       <c r="E17">
-        <v>10.92103319049561</v>
+        <v>10.92103312807573</v>
       </c>
       <c r="F17">
-        <v>32.68377492419557</v>
+        <v>32.6837750982462</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1296,19 +1296,19 @@
         <v>19</v>
       </c>
       <c r="B18">
-        <v>141.5174187752895</v>
+        <v>141.5174189159479</v>
       </c>
       <c r="C18">
-        <v>2.019598025773516</v>
+        <v>2.01959798068143</v>
       </c>
       <c r="D18">
-        <v>16151.20688336921</v>
+        <v>16151.20688126842</v>
       </c>
       <c r="E18">
-        <v>47.80737850236171</v>
+        <v>47.80737790502492</v>
       </c>
       <c r="F18">
-        <v>271.0539598848998</v>
+        <v>271.053959354811</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1316,19 +1316,19 @@
         <v>20</v>
       </c>
       <c r="B19">
-        <v>164.2615838448536</v>
+        <v>164.2615838401609</v>
       </c>
       <c r="C19">
-        <v>0.5478423621061189</v>
+        <v>0.5478423804235601</v>
       </c>
       <c r="D19">
-        <v>15585.29338612366</v>
+        <v>15585.29338622024</v>
       </c>
       <c r="E19">
-        <v>11.5160788006434</v>
+        <v>11.5160795814995</v>
       </c>
       <c r="F19">
-        <v>55.67498100361801</v>
+        <v>55.67498113105195</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1336,19 +1336,19 @@
         <v>21</v>
       </c>
       <c r="B20">
-        <v>163.5758355309956</v>
+        <v>163.5758355389638</v>
       </c>
       <c r="C20">
-        <v>0.4128802106084644</v>
+        <v>0.4128802409920594</v>
       </c>
       <c r="D20">
-        <v>16576.68868210199</v>
+        <v>16576.68868190567</v>
       </c>
       <c r="E20">
-        <v>8.648208238097487</v>
+        <v>8.64820889888456</v>
       </c>
       <c r="F20">
-        <v>21.87309328455671</v>
+        <v>21.8730933734885</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1356,19 +1356,19 @@
         <v>22</v>
       </c>
       <c r="B21">
-        <v>149.7871698728152</v>
+        <v>149.7871699453113</v>
       </c>
       <c r="C21">
-        <v>1.551549015370339</v>
+        <v>1.551549017428905</v>
       </c>
       <c r="D21">
-        <v>16025.1243339436</v>
+        <v>16025.12433217442</v>
       </c>
       <c r="E21">
-        <v>37.71631271480806</v>
+        <v>37.71631273320655</v>
       </c>
       <c r="F21">
-        <v>213.2809230216806</v>
+        <v>213.2809232544543</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1376,19 +1376,19 @@
         <v>23</v>
       </c>
       <c r="B22">
-        <v>178.9045801099693</v>
+        <v>178.9045801099515</v>
       </c>
       <c r="C22">
-        <v>0.3941642714079986</v>
+        <v>0.3941643002065399</v>
       </c>
       <c r="D22">
-        <v>16384.94957878725</v>
+        <v>16384.94957878688</v>
       </c>
       <c r="E22">
-        <v>8.631274780056501</v>
+        <v>8.631275440417472</v>
       </c>
       <c r="F22">
-        <v>25.37410419657215</v>
+        <v>25.37410421937937</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1396,19 +1396,19 @@
         <v>24</v>
       </c>
       <c r="B23">
-        <v>163.9311752072501</v>
+        <v>163.9311751916612</v>
       </c>
       <c r="C23">
-        <v>0.392277097145883</v>
+        <v>0.3922770968099482</v>
       </c>
       <c r="D23">
-        <v>16099.27836898155</v>
+        <v>16099.27836920316</v>
       </c>
       <c r="E23">
-        <v>8.930420979717377</v>
+        <v>8.930420973030976</v>
       </c>
       <c r="F23">
-        <v>7.806202937569811</v>
+        <v>7.806202925596446</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1416,19 +1416,19 @@
         <v>25</v>
       </c>
       <c r="B24">
-        <v>176.9332652534894</v>
+        <v>176.9332652382843</v>
       </c>
       <c r="C24">
-        <v>0.3193576211820481</v>
+        <v>0.3193576228382032</v>
       </c>
       <c r="D24">
-        <v>15880.66944545151</v>
+        <v>15880.66944567685</v>
       </c>
       <c r="E24">
-        <v>6.483014188085091</v>
+        <v>6.48301428768042</v>
       </c>
       <c r="F24">
-        <v>22.54067210427307</v>
+        <v>22.54067236452761</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1436,19 +1436,19 @@
         <v>26</v>
       </c>
       <c r="B25">
-        <v>152.2559964168729</v>
+        <v>152.2559964723118</v>
       </c>
       <c r="C25">
-        <v>1.029975582024021</v>
+        <v>1.029975651594964</v>
       </c>
       <c r="D25">
-        <v>15051.95195244308</v>
+        <v>15051.95195124468</v>
       </c>
       <c r="E25">
-        <v>21.13733547694507</v>
+        <v>21.13733592692567</v>
       </c>
       <c r="F25">
-        <v>46.23575406630761</v>
+        <v>46.23575403856354</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1456,19 +1456,19 @@
         <v>27</v>
       </c>
       <c r="B26">
-        <v>177.9702763337671</v>
+        <v>177.9702762541196</v>
       </c>
       <c r="C26">
-        <v>1.458689854222893</v>
+        <v>1.458689890403227</v>
       </c>
       <c r="D26">
-        <v>15270.29040976915</v>
+        <v>15270.29041143533</v>
       </c>
       <c r="E26">
-        <v>35.20215978666307</v>
+        <v>35.20216020862745</v>
       </c>
       <c r="F26">
-        <v>90.77666692732697</v>
+        <v>90.77666709140885</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1476,19 +1476,19 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>171.8999690174272</v>
+        <v>171.8999690294926</v>
       </c>
       <c r="C27">
-        <v>0.7401084558130627</v>
+        <v>0.740108511038916</v>
       </c>
       <c r="D27">
-        <v>15643.1220255099</v>
+        <v>15643.12202564571</v>
       </c>
       <c r="E27">
-        <v>17.15380403436412</v>
+        <v>17.15380433717275</v>
       </c>
       <c r="F27">
-        <v>89.06021181681642</v>
+        <v>89.06021181681626</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1496,19 +1496,19 @@
         <v>29</v>
       </c>
       <c r="B28">
-        <v>167.0307470181921</v>
+        <v>167.0307470182466</v>
       </c>
       <c r="C28">
-        <v>1.806069464654242</v>
+        <v>1.806069434845757</v>
       </c>
       <c r="D28">
-        <v>16368.2429182438</v>
+        <v>16368.24291825436</v>
       </c>
       <c r="E28">
-        <v>40.55113317742068</v>
+        <v>40.55113271216992</v>
       </c>
       <c r="F28">
-        <v>118.4725113391891</v>
+        <v>118.4725111855842</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1516,19 +1516,19 @@
         <v>30</v>
       </c>
       <c r="B29">
-        <v>178.8888714314132</v>
+        <v>178.8888714317826</v>
       </c>
       <c r="C29">
-        <v>0.2434869314126901</v>
+        <v>0.2434869164313049</v>
       </c>
       <c r="D29">
-        <v>16332.80255162775</v>
+        <v>16332.80255162534</v>
       </c>
       <c r="E29">
-        <v>4.352611097871152</v>
+        <v>4.352610733132668</v>
       </c>
       <c r="F29">
-        <v>10.43727965973668</v>
+        <v>10.4372796752342</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1536,19 +1536,19 @@
         <v>31</v>
       </c>
       <c r="B30">
-        <v>158.409772608434</v>
+        <v>158.4097725997743</v>
       </c>
       <c r="C30">
-        <v>0.5872569705909745</v>
+        <v>0.5872569704979557</v>
       </c>
       <c r="D30">
-        <v>15708.00245449794</v>
+        <v>15708.00245473384</v>
       </c>
       <c r="E30">
-        <v>13.92088664371353</v>
+        <v>13.92088664358613</v>
       </c>
       <c r="F30">
-        <v>50.41386336776188</v>
+        <v>50.41386336588197</v>
       </c>
     </row>
   </sheetData>
@@ -1589,19 +1589,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>167.6171684063704</v>
+        <v>167.6171682759228</v>
       </c>
       <c r="C2">
-        <v>0.8585813813931407</v>
+        <v>0.8585813078797612</v>
       </c>
       <c r="D2">
-        <v>15781.96084062136</v>
+        <v>15781.96084408951</v>
       </c>
       <c r="E2">
-        <v>20.56651361717595</v>
+        <v>20.5665129606702</v>
       </c>
       <c r="F2">
-        <v>54.23839605033969</v>
+        <v>54.23839605034402</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1609,19 +1609,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>179.8658300325806</v>
+        <v>179.8658300700664</v>
       </c>
       <c r="C3">
-        <v>0.4162743287442293</v>
+        <v>0.4162742781386781</v>
       </c>
       <c r="D3">
-        <v>16409.45782131522</v>
+        <v>16409.45782044269</v>
       </c>
       <c r="E3">
-        <v>10.12197606557551</v>
+        <v>10.12197559009574</v>
       </c>
       <c r="F3">
-        <v>22.59297915834705</v>
+        <v>22.59297933467509</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1629,19 +1629,19 @@
         <v>4</v>
       </c>
       <c r="B4">
-        <v>181.8140893275589</v>
+        <v>181.8140893275635</v>
       </c>
       <c r="C4">
-        <v>0.7294344707282774</v>
+        <v>0.7294344707283941</v>
       </c>
       <c r="D4">
-        <v>15960.31205675287</v>
+        <v>15960.31205675262</v>
       </c>
       <c r="E4">
-        <v>17.6304137603146</v>
+        <v>17.63041376031669</v>
       </c>
       <c r="F4">
-        <v>91.75569688142339</v>
+        <v>91.75569688144829</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1649,19 +1649,19 @@
         <v>5</v>
       </c>
       <c r="B5">
-        <v>185.8353292255348</v>
+        <v>185.8353292188033</v>
       </c>
       <c r="C5">
-        <v>0.2981925355738959</v>
+        <v>0.2981925330362365</v>
       </c>
       <c r="D5">
-        <v>15668.20281051064</v>
+        <v>15668.20281069539</v>
       </c>
       <c r="E5">
-        <v>6.834153223655071</v>
+        <v>6.83415313389242</v>
       </c>
       <c r="F5">
-        <v>17.0710525184811</v>
+        <v>17.07105252784297</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1669,19 +1669,19 @@
         <v>6</v>
       </c>
       <c r="B6">
-        <v>161.8995417694356</v>
+        <v>161.8995417696764</v>
       </c>
       <c r="C6">
-        <v>0.4728153365451024</v>
+        <v>0.4728154009347686</v>
       </c>
       <c r="D6">
-        <v>15739.20107210059</v>
+        <v>15739.20107208088</v>
       </c>
       <c r="E6">
-        <v>7.311747465848155</v>
+        <v>7.311748162646938</v>
       </c>
       <c r="F6">
-        <v>69.82598249971021</v>
+        <v>69.8259827587229</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1689,19 +1689,19 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>163.3037181979047</v>
+        <v>163.3037181055685</v>
       </c>
       <c r="C7">
-        <v>1.250473646206288</v>
+        <v>1.250473664600687</v>
       </c>
       <c r="D7">
-        <v>15797.60063779798</v>
+        <v>15797.60063996111</v>
       </c>
       <c r="E7">
-        <v>30.1182373669158</v>
+        <v>30.11823804253029</v>
       </c>
       <c r="F7">
-        <v>176.5624052858996</v>
+        <v>176.5624061422475</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1709,19 +1709,19 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>193.9058661390799</v>
+        <v>193.9058661334175</v>
       </c>
       <c r="C8">
-        <v>0.2264805271161521</v>
+        <v>0.2264805198167393</v>
       </c>
       <c r="D8">
-        <v>15831.57150555717</v>
+        <v>15831.57150561022</v>
       </c>
       <c r="E8">
-        <v>3.32494453736732</v>
+        <v>3.324944507058769</v>
       </c>
       <c r="F8">
-        <v>20.79896201343025</v>
+        <v>20.79896206610903</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1729,19 +1729,19 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>156.4789342042229</v>
+        <v>156.4789342043171</v>
       </c>
       <c r="C9">
-        <v>0.3313384884760435</v>
+        <v>0.3313385303354044</v>
       </c>
       <c r="D9">
-        <v>16063.06602024923</v>
+        <v>16063.06602025035</v>
       </c>
       <c r="E9">
-        <v>7.187899318425325</v>
+        <v>7.187899903681707</v>
       </c>
       <c r="F9">
-        <v>33.8724665777213</v>
+        <v>33.87246637109353</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1749,19 +1749,19 @@
         <v>10</v>
       </c>
       <c r="B10">
-        <v>144.96493878265</v>
+        <v>144.9649387810636</v>
       </c>
       <c r="C10">
-        <v>1.103276877346038</v>
+        <v>1.103276860426544</v>
       </c>
       <c r="D10">
-        <v>15235.13269516074</v>
+        <v>15235.13269519999</v>
       </c>
       <c r="E10">
-        <v>27.2055458309177</v>
+        <v>27.2055458386963</v>
       </c>
       <c r="F10">
-        <v>73.18823758034424</v>
+        <v>73.18823757339058</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1769,19 +1769,19 @@
         <v>11</v>
       </c>
       <c r="B11">
-        <v>181.5092886129663</v>
+        <v>181.5092886239433</v>
       </c>
       <c r="C11">
-        <v>0.2087248733987283</v>
+        <v>0.2087248611311799</v>
       </c>
       <c r="D11">
-        <v>16062.9004992319</v>
+        <v>16062.90049905693</v>
       </c>
       <c r="E11">
-        <v>4.087149698826691</v>
+        <v>4.087149390615336</v>
       </c>
       <c r="F11">
-        <v>11.09402383764938</v>
+        <v>11.09402384359329</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1789,19 +1789,19 @@
         <v>12</v>
       </c>
       <c r="B12">
-        <v>170.8987142937457</v>
+        <v>170.8987143767079</v>
       </c>
       <c r="C12">
-        <v>1.370337783979364</v>
+        <v>1.370337831196626</v>
       </c>
       <c r="D12">
-        <v>15928.60119379818</v>
+        <v>15928.60119277736</v>
       </c>
       <c r="E12">
-        <v>33.63593181901915</v>
+        <v>33.6359324981718</v>
       </c>
       <c r="F12">
-        <v>34.94185808616088</v>
+        <v>34.94185813693466</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -1809,19 +1809,19 @@
         <v>13</v>
       </c>
       <c r="B13">
-        <v>192.5222722810329</v>
+        <v>192.5222722998607</v>
       </c>
       <c r="C13">
-        <v>0.1473723989702485</v>
+        <v>0.1473724049875302</v>
       </c>
       <c r="D13">
-        <v>15962.19299568096</v>
+        <v>15962.19299530078</v>
       </c>
       <c r="E13">
-        <v>3.127549923933207</v>
+        <v>3.12754996866791</v>
       </c>
       <c r="F13">
-        <v>3.190193946199089</v>
+        <v>3.190193945721053</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -1829,19 +1829,19 @@
         <v>14</v>
       </c>
       <c r="B14">
-        <v>164.9315634839368</v>
+        <v>164.9315635107824</v>
       </c>
       <c r="C14">
-        <v>1.370779876819206</v>
+        <v>1.370779930263758</v>
       </c>
       <c r="D14">
-        <v>15189.09480159553</v>
+        <v>15189.09480088599</v>
       </c>
       <c r="E14">
-        <v>31.38744360119532</v>
+        <v>31.38744523850562</v>
       </c>
       <c r="F14">
-        <v>133.9557679436735</v>
+        <v>133.9557678305868</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -1849,19 +1849,19 @@
         <v>15</v>
       </c>
       <c r="B15">
-        <v>175.1988732416993</v>
+        <v>175.1988734252676</v>
       </c>
       <c r="C15">
-        <v>0.8249674005234926</v>
+        <v>0.8249673430052068</v>
       </c>
       <c r="D15">
-        <v>15780.81425936879</v>
+        <v>15780.81425469757</v>
       </c>
       <c r="E15">
-        <v>19.871312776604</v>
+        <v>19.87131249691825</v>
       </c>
       <c r="F15">
-        <v>17.47364328880188</v>
+        <v>17.47364317526932</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1869,19 +1869,19 @@
         <v>16</v>
       </c>
       <c r="B16">
-        <v>152.1700517393402</v>
+        <v>152.1700516944547</v>
       </c>
       <c r="C16">
-        <v>1.677672018850151</v>
+        <v>1.677671786605155</v>
       </c>
       <c r="D16">
-        <v>15438.14175882838</v>
+        <v>15438.14175985775</v>
       </c>
       <c r="E16">
-        <v>40.13214591182554</v>
+        <v>40.13214258921702</v>
       </c>
       <c r="F16">
-        <v>174.3059528721872</v>
+        <v>174.3059524205286</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1889,19 +1889,19 @@
         <v>17</v>
       </c>
       <c r="B17">
-        <v>165.1399656585457</v>
+        <v>165.1399656194305</v>
       </c>
       <c r="C17">
-        <v>0.7372923120266952</v>
+        <v>0.7372923613266816</v>
       </c>
       <c r="D17">
-        <v>15632.44345045543</v>
+        <v>15632.44345138112</v>
       </c>
       <c r="E17">
-        <v>15.20405115869909</v>
+        <v>15.20405220372575</v>
       </c>
       <c r="F17">
-        <v>81.97944157372564</v>
+        <v>81.97944215548358</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1909,19 +1909,19 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>174.623879199849</v>
+        <v>174.6238791921467</v>
       </c>
       <c r="C18">
-        <v>0.1824596655170789</v>
+        <v>0.1824596700584847</v>
       </c>
       <c r="D18">
-        <v>15187.08628852936</v>
+        <v>15187.08628871106</v>
       </c>
       <c r="E18">
-        <v>4.048447362318352</v>
+        <v>4.048447463355067</v>
       </c>
       <c r="F18">
-        <v>12.95235831900428</v>
+        <v>12.95235836000427</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1929,19 +1929,19 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>169.3623611965841</v>
+        <v>169.3623612281818</v>
       </c>
       <c r="C19">
-        <v>1.624620022824257</v>
+        <v>1.624620023110185</v>
       </c>
       <c r="D19">
-        <v>15069.53131462902</v>
+        <v>15069.53131388534</v>
       </c>
       <c r="E19">
-        <v>37.50088549168877</v>
+        <v>37.50088548921322</v>
       </c>
       <c r="F19">
-        <v>422.2231622108119</v>
+        <v>422.2231622122443</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1949,19 +1949,19 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>157.5977992753404</v>
+        <v>157.5977987591407</v>
       </c>
       <c r="C20">
-        <v>2.195562104651001</v>
+        <v>2.195562027409887</v>
       </c>
       <c r="D20">
-        <v>15575.30503535945</v>
+        <v>15575.30504840313</v>
       </c>
       <c r="E20">
-        <v>52.47440624539776</v>
+        <v>52.47440439444279</v>
       </c>
       <c r="F20">
-        <v>35.81659450932945</v>
+        <v>35.81659450072787</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1969,19 +1969,19 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>161.3170238319447</v>
+        <v>161.317023850279</v>
       </c>
       <c r="C21">
-        <v>0.5153193070072527</v>
+        <v>0.5153193243564268</v>
       </c>
       <c r="D21">
-        <v>15363.90321375819</v>
+        <v>15363.90321345267</v>
       </c>
       <c r="E21">
-        <v>9.967015614883788</v>
+        <v>9.967015992728859</v>
       </c>
       <c r="F21">
-        <v>27.74983436345934</v>
+        <v>27.74983394091043</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1989,19 +1989,19 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>185.4320131713321</v>
+        <v>185.4320131709113</v>
       </c>
       <c r="C22">
-        <v>0.380015690647249</v>
+        <v>0.3800157347860379</v>
       </c>
       <c r="D22">
-        <v>15854.11927601136</v>
+        <v>15854.11927601563</v>
       </c>
       <c r="E22">
-        <v>8.505486486035876</v>
+        <v>8.505487297871142</v>
       </c>
       <c r="F22">
-        <v>13.82483394349896</v>
+        <v>13.82483394079725</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2009,19 +2009,19 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>176.1819917161255</v>
+        <v>176.1819917029374</v>
       </c>
       <c r="C23">
-        <v>0.2640610785812936</v>
+        <v>0.2640610641306637</v>
       </c>
       <c r="D23">
-        <v>16316.47713396617</v>
+        <v>16316.47713426305</v>
       </c>
       <c r="E23">
-        <v>6.039128971071885</v>
+        <v>6.039128643297242</v>
       </c>
       <c r="F23">
-        <v>8.944388000812499</v>
+        <v>8.944387965887726</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2029,19 +2029,19 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>176.5343282636875</v>
+        <v>176.5343282605241</v>
       </c>
       <c r="C24">
-        <v>0.4077627820693152</v>
+        <v>0.4077627772396445</v>
       </c>
       <c r="D24">
-        <v>15637.67259410585</v>
+        <v>15637.67259427649</v>
       </c>
       <c r="E24">
-        <v>7.389575036167392</v>
+        <v>7.389575001451788</v>
       </c>
       <c r="F24">
-        <v>52.31376103143313</v>
+        <v>52.31376103142598</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2049,19 +2049,19 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>172.7231135301732</v>
+        <v>172.7231135229617</v>
       </c>
       <c r="C25">
-        <v>0.3436427985232201</v>
+        <v>0.3436428003459975</v>
       </c>
       <c r="D25">
-        <v>16670.38624897148</v>
+        <v>16670.38624931598</v>
       </c>
       <c r="E25">
-        <v>8.040187443540573</v>
+        <v>8.040187448984991</v>
       </c>
       <c r="F25">
-        <v>12.19226582140398</v>
+        <v>12.19226600487379</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2069,19 +2069,19 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>152.393344685031</v>
+        <v>152.3933440732984</v>
       </c>
       <c r="C26">
-        <v>2.131867819110794</v>
+        <v>2.131868114063436</v>
       </c>
       <c r="D26">
-        <v>16054.22497984474</v>
+        <v>16054.22499451612</v>
       </c>
       <c r="E26">
-        <v>51.33721191732044</v>
+        <v>51.33721658467409</v>
       </c>
       <c r="F26">
-        <v>51.76361875345416</v>
+        <v>51.76361878152616</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2089,19 +2089,19 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>158.7863547124746</v>
+        <v>158.7863547124731</v>
       </c>
       <c r="C27">
-        <v>0.6594842996430744</v>
+        <v>0.6594842991669921</v>
       </c>
       <c r="D27">
-        <v>15973.80703794549</v>
+        <v>15973.80703794602</v>
       </c>
       <c r="E27">
-        <v>15.30095496552097</v>
+        <v>15.30095565701304</v>
       </c>
       <c r="F27">
-        <v>85.22600507140103</v>
+        <v>85.22600500500471</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -2109,19 +2109,19 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>165.3626012104471</v>
+        <v>165.3626011962798</v>
       </c>
       <c r="C28">
-        <v>0.7296974942714306</v>
+        <v>0.7296975041210564</v>
       </c>
       <c r="D28">
-        <v>15573.81577637835</v>
+        <v>15573.81577676624</v>
       </c>
       <c r="E28">
-        <v>17.53154153831508</v>
+        <v>17.5315417878661</v>
       </c>
       <c r="F28">
-        <v>34.73067261231697</v>
+        <v>34.73067261810142</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2129,19 +2129,19 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>156.2687724590065</v>
+        <v>156.2687724378132</v>
       </c>
       <c r="C29">
-        <v>0.6178538673534726</v>
+        <v>0.6178538688798796</v>
       </c>
       <c r="D29">
-        <v>15393.7038666746</v>
+        <v>15393.70386705351</v>
       </c>
       <c r="E29">
-        <v>14.20035586555261</v>
+        <v>14.20035591559602</v>
       </c>
       <c r="F29">
-        <v>55.7225703828275</v>
+        <v>55.7225706815886</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2149,19 +2149,19 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>159.5425855421916</v>
+        <v>159.5425855632834</v>
       </c>
       <c r="C30">
-        <v>0.6616645865098613</v>
+        <v>0.6616645795434777</v>
       </c>
       <c r="D30">
-        <v>16199.25744212092</v>
+        <v>16199.2574416448</v>
       </c>
       <c r="E30">
-        <v>13.93632951767127</v>
+        <v>13.93632943674482</v>
       </c>
       <c r="F30">
-        <v>69.47953997107977</v>
+        <v>69.47953997106347</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -2169,19 +2169,19 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>185.2751197427868</v>
+        <v>185.2751197366409</v>
       </c>
       <c r="C31">
-        <v>0.6080310307202414</v>
+        <v>0.6080310192295084</v>
       </c>
       <c r="D31">
-        <v>15161.64482175894</v>
+        <v>15161.64482189114</v>
       </c>
       <c r="E31">
-        <v>13.0028529270964</v>
+        <v>13.00285298627274</v>
       </c>
       <c r="F31">
-        <v>13.03483461228188</v>
+        <v>13.03483461228329</v>
       </c>
     </row>
   </sheetData>
@@ -2222,19 +2222,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>148.0510260649189</v>
+        <v>148.0510260355964</v>
       </c>
       <c r="C2">
-        <v>1.311254650686291</v>
+        <v>1.311254763519358</v>
       </c>
       <c r="D2">
-        <v>15953.00676218123</v>
+        <v>15953.00676214639</v>
       </c>
       <c r="E2">
-        <v>31.78220838771806</v>
+        <v>31.78221071420582</v>
       </c>
       <c r="F2">
-        <v>85.41770438001464</v>
+        <v>85.41770390853456</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2262,19 +2262,19 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>169.8953393232412</v>
+        <v>169.8953393257597</v>
       </c>
       <c r="C4">
-        <v>0.6539866227507833</v>
+        <v>0.6539866296896705</v>
       </c>
       <c r="D4">
-        <v>15236.98357914869</v>
+        <v>15236.98357908533</v>
       </c>
       <c r="E4">
-        <v>14.78607370195821</v>
+        <v>14.78607400533547</v>
       </c>
       <c r="F4">
-        <v>38.5872409304223</v>
+        <v>38.58724088508478</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2282,19 +2282,19 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>168.929948311048</v>
+        <v>168.9299483114739</v>
       </c>
       <c r="C5">
-        <v>0.2902199018510232</v>
+        <v>0.290219918973018</v>
       </c>
       <c r="D5">
-        <v>16044.74157230037</v>
+        <v>16044.74157229759</v>
       </c>
       <c r="E5">
-        <v>5.986267160207698</v>
+        <v>5.986267550597049</v>
       </c>
       <c r="F5">
-        <v>38.70522899014073</v>
+        <v>38.70522848548889</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2302,19 +2302,19 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>142.5597002009688</v>
+        <v>142.559700200869</v>
       </c>
       <c r="C6">
-        <v>1.028698228246194</v>
+        <v>1.028698217784397</v>
       </c>
       <c r="D6">
-        <v>15867.05970530575</v>
+        <v>15867.05970536205</v>
       </c>
       <c r="E6">
-        <v>23.71993606473574</v>
+        <v>23.71993582696739</v>
       </c>
       <c r="F6">
-        <v>52.28759570294396</v>
+        <v>52.28759463945227</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2322,19 +2322,19 @@
         <v>7</v>
       </c>
       <c r="B7">
-        <v>166.4344472851377</v>
+        <v>166.4344472666375</v>
       </c>
       <c r="C7">
-        <v>0.2541609279916741</v>
+        <v>0.2541609279211927</v>
       </c>
       <c r="D7">
-        <v>16171.43766549415</v>
+        <v>16171.43766590752</v>
       </c>
       <c r="E7">
-        <v>6.020899125799391</v>
+        <v>6.020899124978742</v>
       </c>
       <c r="F7">
-        <v>8.095994056986106</v>
+        <v>8.095994054256998</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2342,19 +2342,19 @@
         <v>8</v>
       </c>
       <c r="B8">
-        <v>179.1109390900652</v>
+        <v>179.1109392763649</v>
       </c>
       <c r="C8">
-        <v>1.173322603861083</v>
+        <v>1.173322630664713</v>
       </c>
       <c r="D8">
-        <v>15632.94494133294</v>
+        <v>15632.94493732042</v>
       </c>
       <c r="E8">
-        <v>26.87820111061087</v>
+        <v>26.8782018992968</v>
       </c>
       <c r="F8">
-        <v>53.0102107482836</v>
+        <v>53.01021082453502</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2362,19 +2362,19 @@
         <v>10</v>
       </c>
       <c r="B9">
-        <v>172.3770307399654</v>
+        <v>172.3770307544339</v>
       </c>
       <c r="C9">
-        <v>0.2392891782973098</v>
+        <v>0.2392892053129031</v>
       </c>
       <c r="D9">
-        <v>16112.00159734521</v>
+        <v>16112.00159696072</v>
       </c>
       <c r="E9">
-        <v>5.435340323470996</v>
+        <v>5.435340725727348</v>
       </c>
       <c r="F9">
-        <v>8.307467250664963</v>
+        <v>8.307467237580854</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2382,19 +2382,19 @@
         <v>11</v>
       </c>
       <c r="B10">
-        <v>165.0381198821282</v>
+        <v>165.0381198821281</v>
       </c>
       <c r="C10">
-        <v>0.17840828310384</v>
+        <v>0.1784082834114902</v>
       </c>
       <c r="D10">
         <v>16569.91519438747</v>
       </c>
       <c r="E10">
-        <v>3.987463004713656</v>
+        <v>3.987462996068743</v>
       </c>
       <c r="F10">
-        <v>4.587433491385276</v>
+        <v>4.587433491385274</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2402,19 +2402,19 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>171.5480577384891</v>
+        <v>171.5480577464594</v>
       </c>
       <c r="C11">
-        <v>0.2995033594250299</v>
+        <v>0.2995033369638522</v>
       </c>
       <c r="D11">
-        <v>16182.1502983782</v>
+        <v>16182.15029819601</v>
       </c>
       <c r="E11">
-        <v>6.843160082797917</v>
+        <v>6.843159773959863</v>
       </c>
       <c r="F11">
-        <v>4.576825474678868</v>
+        <v>4.576825475517568</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2422,19 +2422,19 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>155.0501133416554</v>
+        <v>155.0501133416608</v>
       </c>
       <c r="C12">
-        <v>0.4276027180789774</v>
+        <v>0.4276027174680843</v>
       </c>
       <c r="D12">
-        <v>15229.85846070413</v>
+        <v>15229.85846070401</v>
       </c>
       <c r="E12">
-        <v>10.30913018795556</v>
+        <v>10.30913016511034</v>
       </c>
       <c r="F12">
-        <v>21.94397945051051</v>
+        <v>21.9439794505122</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2442,19 +2442,19 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>178.9042223661583</v>
+        <v>178.904222395919</v>
       </c>
       <c r="C13">
-        <v>1.441351740240423</v>
+        <v>1.441351731559594</v>
       </c>
       <c r="D13">
-        <v>15791.29445101609</v>
+        <v>15791.29445063136</v>
       </c>
       <c r="E13">
-        <v>35.37471728976449</v>
+        <v>35.37471706722578</v>
       </c>
       <c r="F13">
-        <v>50.98504905590738</v>
+        <v>50.98504881138563</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2462,19 +2462,19 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>156.8141238740756</v>
+        <v>156.8141238717352</v>
       </c>
       <c r="C14">
-        <v>0.9667249611962527</v>
+        <v>0.9667249186627122</v>
       </c>
       <c r="D14">
-        <v>15176.17168350953</v>
+        <v>15176.17168352791</v>
       </c>
       <c r="E14">
-        <v>21.02048832419684</v>
+        <v>21.0204874029753</v>
       </c>
       <c r="F14">
-        <v>90.33554558390526</v>
+        <v>90.33554532345367</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2482,19 +2482,19 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>159.6355138002673</v>
+        <v>159.6355138125951</v>
       </c>
       <c r="C15">
-        <v>0.6447503837796345</v>
+        <v>0.6447503024320879</v>
       </c>
       <c r="D15">
-        <v>16007.9240097881</v>
+        <v>16007.92400949179</v>
       </c>
       <c r="E15">
-        <v>15.2786436404174</v>
+        <v>15.27864237550271</v>
       </c>
       <c r="F15">
-        <v>25.81978990496621</v>
+        <v>25.81978990497125</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2502,19 +2502,19 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>163.7103664702319</v>
+        <v>163.7103664952502</v>
       </c>
       <c r="C16">
-        <v>1.052966566266599</v>
+        <v>1.052966530478577</v>
       </c>
       <c r="D16">
-        <v>15749.15653147914</v>
+        <v>15749.15653076294</v>
       </c>
       <c r="E16">
-        <v>25.58208417303074</v>
+        <v>25.58208312652217</v>
       </c>
       <c r="F16">
-        <v>56.62785730605836</v>
+        <v>56.62785730609947</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2522,19 +2522,19 @@
         <v>20</v>
       </c>
       <c r="B17">
-        <v>141.2814448104404</v>
+        <v>141.2814436531827</v>
       </c>
       <c r="C17">
-        <v>2.760534101492266</v>
+        <v>2.760534405966002</v>
       </c>
       <c r="D17">
-        <v>15677.95489640318</v>
+        <v>15677.95492173659</v>
       </c>
       <c r="E17">
-        <v>62.19131674156939</v>
+        <v>62.19132668867525</v>
       </c>
       <c r="F17">
-        <v>370.427200438445</v>
+        <v>370.4271984083037</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2542,19 +2542,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>154.9175295406985</v>
+        <v>154.9175295930577</v>
       </c>
       <c r="C18">
-        <v>1.618160933826427</v>
+        <v>1.618161101814847</v>
       </c>
       <c r="D18">
-        <v>15323.18038419953</v>
+        <v>15323.18038302442</v>
       </c>
       <c r="E18">
-        <v>37.7952670464035</v>
+        <v>37.79526983571569</v>
       </c>
       <c r="F18">
-        <v>122.1307039232858</v>
+        <v>122.1307029810787</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2562,19 +2562,19 @@
         <v>22</v>
       </c>
       <c r="B19">
-        <v>164.8214859137134</v>
+        <v>164.8214859152328</v>
       </c>
       <c r="C19">
-        <v>0.4649917359111723</v>
+        <v>0.4649917549635739</v>
       </c>
       <c r="D19">
-        <v>15939.22007577726</v>
+        <v>15939.22007576726</v>
       </c>
       <c r="E19">
-        <v>8.550851612567099</v>
+        <v>8.550851586009934</v>
       </c>
       <c r="F19">
-        <v>51.66389919543957</v>
+        <v>51.663899347167</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2582,19 +2582,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>163.5953965163339</v>
+        <v>163.5953965024196</v>
       </c>
       <c r="C20">
-        <v>0.5835417908614413</v>
+        <v>0.5835417929001666</v>
       </c>
       <c r="D20">
-        <v>15205.33919167695</v>
+        <v>15205.33919211791</v>
       </c>
       <c r="E20">
-        <v>12.39527342885621</v>
+        <v>12.39527349924434</v>
       </c>
       <c r="F20">
-        <v>138.0325895209091</v>
+        <v>138.0325909209409</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2602,19 +2602,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>179.650003080423</v>
+        <v>179.6500030770051</v>
       </c>
       <c r="C21">
-        <v>0.1705348383615619</v>
+        <v>0.1705348377145344</v>
       </c>
       <c r="D21">
-        <v>15885.21194737477</v>
+        <v>15885.21194752666</v>
       </c>
       <c r="E21">
-        <v>3.937777385692125</v>
+        <v>3.937777352151095</v>
       </c>
       <c r="F21">
-        <v>4.829855258494161</v>
+        <v>4.829855221935532</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2622,19 +2622,19 @@
         <v>26</v>
       </c>
       <c r="B22">
-        <v>154.7943719348289</v>
+        <v>154.7943719345685</v>
       </c>
       <c r="C22">
-        <v>0.8799422285457008</v>
+        <v>0.87994218983385</v>
       </c>
       <c r="D22">
-        <v>15198.44618028177</v>
+        <v>15198.44618029496</v>
       </c>
       <c r="E22">
-        <v>20.86004828271677</v>
+        <v>20.86004735117696</v>
       </c>
       <c r="F22">
-        <v>123.5309350418509</v>
+        <v>123.5309343201595</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2642,19 +2642,19 @@
         <v>27</v>
       </c>
       <c r="B23">
-        <v>167.1239907709587</v>
+        <v>167.1239907479662</v>
       </c>
       <c r="C23">
-        <v>0.9860966335595649</v>
+        <v>0.9860965531466058</v>
       </c>
       <c r="D23">
-        <v>15998.16090523473</v>
+        <v>15998.1609057736</v>
       </c>
       <c r="E23">
-        <v>22.85278572968904</v>
+        <v>22.85278471211521</v>
       </c>
       <c r="F23">
-        <v>100.9824732251713</v>
+        <v>100.9824732251894</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2662,19 +2662,19 @@
         <v>28</v>
       </c>
       <c r="B24">
-        <v>162.9826061844754</v>
+        <v>162.982606184472</v>
       </c>
       <c r="C24">
-        <v>0.7140960622963173</v>
+        <v>0.7140960623038409</v>
       </c>
       <c r="D24">
-        <v>15757.38311717241</v>
+        <v>15757.38311717249</v>
       </c>
       <c r="E24">
-        <v>15.06184735090354</v>
+        <v>15.06184735105899</v>
       </c>
       <c r="F24">
-        <v>100.3640761945532</v>
+        <v>100.3640761945733</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2682,19 +2682,19 @@
         <v>29</v>
       </c>
       <c r="B25">
-        <v>158.7491582437675</v>
+        <v>158.7491582233634</v>
       </c>
       <c r="C25">
-        <v>1.0004414303002</v>
+        <v>1.000441429830272</v>
       </c>
       <c r="D25">
-        <v>15451.88972659237</v>
+        <v>15451.88972713189</v>
       </c>
       <c r="E25">
-        <v>23.54940028961202</v>
+        <v>23.54940028226441</v>
       </c>
       <c r="F25">
-        <v>201.9677168480051</v>
+        <v>201.9677167086996</v>
       </c>
     </row>
   </sheetData>
